--- a/results/yq_test/GHZ_cz/Rb2Re4/cz_2q_ghz_indep_qiskit_24.qasm_rb2_archsize5_mini_dis.xlsx
+++ b/results/yq_test/GHZ_cz/Rb2Re4/cz_2q_ghz_indep_qiskit_24.qasm_rb2_archsize5_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02708721160888672</v>
+        <v>0.0008442401885986328</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0006248950958251953</v>
+        <v>0.0007798671722412109</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0002608299255371094</v>
+        <v>0.009490728378295898</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(4, 2), (4, 0), (4, 1), (4, 3), (3, 4), (3, 2), (3, 0), (3, 1), (3, 3), (2, 4), (2, 2), (2, 0), (2, 1), (2, 3), (1, 4), (1, 2), (1, 0), (1, 1), (1, 3), (0, 4), (0, 3), (0, 2), (0, 1), (0, 0)]</t>
+          <t>[[4, 2], [4, 0], [4, 1], [4, 3], [3, 4], [3, 2], [3, 0], [3, 1], [3, 3], [2, 4], [2, 2], [2, 0], [2, 1], [2, 3], [1, 4], [1, 2], [1, 0], [1, 1], [1, 3], [0, 4], [0, 3], [0, 2], [0, 1], [0, 0]]</t>
         </is>
       </c>
     </row>
@@ -513,11 +513,6 @@
           <t>[23, 22]</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>[4, 3]</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -532,11 +527,6 @@
           <t>[21, 20]</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>[2, 1]</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -544,11 +534,6 @@
           <t>[20, 19]</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>[1, 0]</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -658,137 +643,168 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>[3, 2]</t>
+          <t>[4, 3]</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Fidelity:</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>0.8910547591893295</v>
+          <t>[3, 2]</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>t_idle:</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>91.40000000000001</v>
+          <t>[2, 1]</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Movement times</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>0</v>
+          <t>[1, 0]</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Fidelity:</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>20</v>
+        <v>0.891046205104701</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>t_idle:</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>105.8</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.03180193901062012</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
+          <t>Movement times</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>parallel times</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>partitions</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.01857304573059082</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="L39" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr">
+      <c r="M39" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N35" t="inlineStr">
+      <c r="N39" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>
